--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -14,33 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Syntax</t>
-  </si>
-  <si>
-    <t>Jersey City</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>LogicMax</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>NY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Antuanetta</t>
+  </si>
+  <si>
+    <t>Rojer</t>
+  </si>
+  <si>
+    <t>Grabhan</t>
+  </si>
+  <si>
+    <t>Ellin</t>
+  </si>
+  <si>
+    <t>Twelt</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Bordargo</t>
+  </si>
+  <si>
+    <t>Eleonora</t>
+  </si>
+  <si>
+    <t>Parencse</t>
   </si>
 </sst>
 </file>
@@ -77,6 +95,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -85,6 +117,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -93,6 +133,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -108,6 +163,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -115,39 +185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,27 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -190,17 +209,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +245,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -239,19 +275,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,19 +347,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,19 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,79 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +443,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -435,21 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,35 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,133 +532,133 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,15 +997,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.8125" customWidth="1"/>
+    <col min="2" max="2" width="18.6171875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1005,22 +1025,66 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1010</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1010</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4">
+        <v>1010</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1010</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
